--- a/Отчеты/Шум/Шум.xlsx
+++ b/Отчеты/Шум/Шум.xlsx
@@ -466,9 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,6 +473,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+      <selection activeCell="B15" sqref="B15:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,14 +771,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -799,14 +799,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>B3+10*LOG(1.5/8)</f>
-        <v>64.730012720637376</v>
+        <v>69.730012720637376</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F11" si="0">B4+10*LOG(1.5/8)</f>
         <v>65.83001272063737</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>66.930012720637379</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>60.730012720637376</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>66.730012720637376</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>68.83001272063737</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>66.430012720637379</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>64.83001272063737</v>
       </c>
@@ -924,20 +924,20 @@
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>58.730012720637376</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -946,51 +946,72 @@
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <f>20*LOG(-(10^(0.05*$B$3)-10^(0.05*B4)))</f>
-        <v>54.607371221552597</v>
+        <f>20*LOG(10^(0.05*$B$3)-10^(0.05*B4))</f>
+        <v>68.167846976204899</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <f t="shared" ref="B16:B21" si="1">20*LOG(10^(0.05*$B$3)-10^(0.05*B5))</f>
+        <v>65.804450862600717</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>73.193706922305154</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>66.309269587682252</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>56.862449314255848</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <f t="shared" si="1"/>
+        <v>66.996169863438297</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <f t="shared" si="1"/>
+        <v>69.692508764148386</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <f>20*LOG(10^(0.05*$B$3)-10^(0.05*B11))</f>
+        <v>74.124444887511473</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
